--- a/Documentation/Error map.xlsx
+++ b/Documentation/Error map.xlsx
@@ -5,27 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHE\Desktop\Git_Sick\PalletCheckWalmart\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3F03E1-4A3C-486F-BB81-761B41278837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9277C187-F920-4CD9-90C3-63F8864137B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10690" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0DE52C7B-7970-47B3-80ED-72FE7D59C4A1}"/>
+    <workbookView xWindow="54480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DE52C7B-7970-47B3-80ED-72FE7D59C4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Defect Type</t>
   </si>
@@ -63,9 +74,6 @@
     <t>missing_wood</t>
   </si>
   <si>
-    <t>Missing too much materials</t>
-  </si>
-  <si>
     <t>RN</t>
   </si>
   <si>
@@ -141,9 +149,6 @@
     <t>Min width was less than expected width</t>
   </si>
   <si>
-    <t>Top, Bottom, Left &amp; Right</t>
-  </si>
-  <si>
     <t>Not implemented</t>
   </si>
   <si>
@@ -210,9 +215,6 @@
     <t>The areas between blocks/ Only right side</t>
   </si>
   <si>
-    <t>All boards (Top and bottom)</t>
-  </si>
-  <si>
     <t>All blocks (Left and Right)</t>
   </si>
   <si>
@@ -232,13 +234,108 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>raised_nail(Easy Ranger for sides)</t>
+  </si>
+  <si>
+    <t>Top, Bottom</t>
+  </si>
+  <si>
+    <t>Whole area</t>
+  </si>
+  <si>
+    <t>Leading Board Minimun -Width Across Length(in)
+-Trailing Board Minimum Width Across Length(in)  
+-PPIY -PPIX 
+-H Board Length(in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Nail Height (RN) Nail Confirmations Required 
+(RN) Nail Neighbor Sample Points 
+(RN) Nail Neighbor Sample Radius 
+(RN) Nail Confirm Surface Radius 
+(RN) Nail Confirm Head Inner Radius 
+(RN) Nail Confirm Head Outer Radius 
+Crack Tracker Block Size 
+Crack Tracker Min Pct  
+Crack Tracker Min Delta 
+Auto Start Capturing </t>
+  </si>
+  <si>
+    <t>ProtrudinNailHeigt</t>
+  </si>
+  <si>
+    <t>MissingChunkHeightDeviationThreshold(mm)</t>
+  </si>
+  <si>
+    <t>ForkClearancePercentage(%)</t>
+  </si>
+  <si>
+    <t>Whole area (Top and bottom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing too much materials </t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>"Min width was less than expected width "</t>
+  </si>
+  <si>
+    <t>MinWidthForChunkAcrossLength</t>
+  </si>
+  <si>
+    <t>missing_wood_width_across_length</t>
+  </si>
+  <si>
+    <t>Missing_wood</t>
+  </si>
+  <si>
+    <t>"X  Narrow Board Minimum Width (in)"</t>
+  </si>
+  <si>
+    <t>"X Missing Chunk Minimum Width (in)"</t>
+  </si>
+  <si>
+    <t>"X Missing Chunk Minimum Length (in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board too narrow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Missing wood too deep &lt;"	X
+ "(in) and too long &gt;" 		X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Missing chunk width &lt;" X "(in) Across the lengh ");</t>
+  </si>
+  <si>
+    <t>Not used(0.9 Before)</t>
+  </si>
+  <si>
+    <t>1st parameter used</t>
+  </si>
+  <si>
+    <t>2nd parameter used</t>
+  </si>
+  <si>
+    <t>0.5(default value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raised nails </t>
+  </si>
+  <si>
+    <t>"X Missing Chunk Minimum Width (in)"     
+"X Missing Chunk Minimum Length (in)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +355,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,10 +388,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,20 +710,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C5A30A-B25A-4A24-A650-5341B92F473D}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,42 +732,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -665,13 +798,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,212 +826,289 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
+      <c r="F22" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Error map.xlsx
+++ b/Documentation/Error map.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHE\Desktop\Git_Sick\PalletCheckWalmart\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\source\repos\PalletCheckWalmart\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9277C187-F920-4CD9-90C3-63F8864137B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564FFC02-0151-4529-BBDA-F8BF08F8C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DE52C7B-7970-47B3-80ED-72FE7D59C4A1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DE52C7B-7970-47B3-80ED-72FE7D59C4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>Defect Type</t>
   </si>
@@ -44,9 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Side nails protruding out sides of pallet</t>
-  </si>
-  <si>
     <t>Fork Clearance is x% less than x%</t>
   </si>
   <si>
@@ -173,18 +159,6 @@
     <t>Fork Clearance</t>
   </si>
   <si>
-    <t>Blocks protruding from P.</t>
-  </si>
-  <si>
-    <t>Side Nails protruding from P.</t>
-  </si>
-  <si>
-    <t>Nails with head cut off</t>
-  </si>
-  <si>
-    <t>Missing wood on full length</t>
-  </si>
-  <si>
     <t>Inspection Zone</t>
   </si>
   <si>
@@ -230,13 +204,7 @@
     <t>Parameters used</t>
   </si>
   <si>
-    <t>Right</t>
-  </si>
-  <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>raised_nail(Easy Ranger for sides)</t>
   </si>
   <si>
     <t>Top, Bottom</t>
@@ -329,6 +297,33 @@
   <si>
     <t>"X Missing Chunk Minimum Width (in)"     
 "X Missing Chunk Minimum Length (in)</t>
+  </si>
+  <si>
+    <t>Left &amp; Right, Front &amp; Back</t>
+  </si>
+  <si>
+    <t>Top &amp; Bottom, Left &amp; Right (middle board)</t>
+  </si>
+  <si>
+    <t>Raised Nail Fastener Cut off</t>
+  </si>
+  <si>
+    <t>Missing Wood Across length</t>
+  </si>
+  <si>
+    <t>Blocks protruding from Pallet</t>
+  </si>
+  <si>
+    <t>MWMW</t>
+  </si>
+  <si>
+    <t>Middle Board Missing Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>Side Nails protruding from Pallet</t>
   </si>
 </sst>
 </file>
@@ -388,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +391,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -454,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -560,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,92 +706,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C5A30A-B25A-4A24-A650-5341B92F473D}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -804,69 +797,72 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -874,16 +870,13 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -891,13 +884,13 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -908,207 +901,209 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="F31" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Error map.xlsx
+++ b/Documentation/Error map.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\source\repos\PalletCheckWalmart\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\source\repos\PalletCheckWalmartRecipes\PalletCheckWalmart\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564FFC02-0151-4529-BBDA-F8BF08F8C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBA3242-C1C9-403F-80C0-B07412AF6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DE52C7B-7970-47B3-80ED-72FE7D59C4A1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0DE52C7B-7970-47B3-80ED-72FE7D59C4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
   <si>
     <t>Defect Type</t>
   </si>
@@ -324,6 +325,189 @@
   </si>
   <si>
     <t>Side Nails protruding from Pallet</t>
+  </si>
+  <si>
+    <t>T_BN = 5,       // Top Board too Narrow</t>
+  </si>
+  <si>
+    <t>B_BN = 14,      // Bottom Board too Narrow</t>
+  </si>
+  <si>
+    <t>L_BPFP = 25,    // Left Block Protruding from Pallet</t>
+  </si>
+  <si>
+    <t>R_BPFP = 32,    // Right Block Protruding from Pallet</t>
+  </si>
+  <si>
+    <t>F_BPFP = 36,    // Front Block Protruding  from Pallet</t>
+  </si>
+  <si>
+    <t>B_BPFP = 42,    // Back Block Protruding  from Pallet</t>
+  </si>
+  <si>
+    <t>T_BW = 3,       // Top Broken Across Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_BW = 12,      // Bottom Borken Across Width </t>
+  </si>
+  <si>
+    <t>L_EA = 23,      // Left Excesive Angle (Rotated Block)</t>
+  </si>
+  <si>
+    <t>R_EA = 30,      // Right Excesive Angle (Rotated Block)</t>
+  </si>
+  <si>
+    <t>F_EA = 35,      // Front Excessive Angle (Rotated Block)</t>
+  </si>
+  <si>
+    <t>B_EA = 41,      // Back Excessive Angle (Rotated Block)</t>
+  </si>
+  <si>
+    <t>T_ER = 9,       // Top Segmentation Error</t>
+  </si>
+  <si>
+    <t>B_ER = 18,      // Bottom Segmentation Error</t>
+  </si>
+  <si>
+    <t>L_FC = 26,      // Left Fork Clearance</t>
+  </si>
+  <si>
+    <t>R_FC = 33,      // Right Fork Clearance</t>
+  </si>
+  <si>
+    <t>F_FC = 39,      // Front Fork Clearance</t>
+  </si>
+  <si>
+    <t>B_FC = 45,      // Back Fork Clearance</t>
+  </si>
+  <si>
+    <t>T_MB = 8,       // Top Missing Board</t>
+  </si>
+  <si>
+    <t>B_MB = 17,      // Bottom Missing Board</t>
+  </si>
+  <si>
+    <t>L_MO = 21,      // Left Missing Block</t>
+  </si>
+  <si>
+    <t>R_MO = 28,      // Right Missing Block</t>
+  </si>
+  <si>
+    <t>F_MO = 37,      // Front Missing Block</t>
+  </si>
+  <si>
+    <t>B_MO = 43,      // Back Missing Block</t>
+  </si>
+  <si>
+    <t>T_MW = 4,       // Top Missing Wood</t>
+  </si>
+  <si>
+    <t>B_MW = 13,      // Bottom Missing Wood</t>
+  </si>
+  <si>
+    <t>L_MU = 22,      // Left Missing Chunk</t>
+  </si>
+  <si>
+    <t>R_MU = 29,      // Right Missing Chunk</t>
+  </si>
+  <si>
+    <t>F_MU = 38,      // Front Missing Chunks</t>
+  </si>
+  <si>
+    <t>B_MU = 44,      // Back Missing Chunks</t>
+  </si>
+  <si>
+    <t>T_MWA = 1,      // Top Missing Wood Across Lenght</t>
+  </si>
+  <si>
+    <t>L_MBMW // Left Middle Board Missing Wood</t>
+  </si>
+  <si>
+    <t>R_MBMW // Right Middle Board Missing Wood</t>
+  </si>
+  <si>
+    <t>T_PD = 6,       // Top Possbile Debris</t>
+  </si>
+  <si>
+    <t>B_PD = 15,      // Bottom Possible Debris</t>
+  </si>
+  <si>
+    <t>L_SNP = 20,     // Left Side Nail Protruding</t>
+  </si>
+  <si>
+    <t>R_SNP = 27,     // Right Side Nail Protruding</t>
+  </si>
+  <si>
+    <t>F_SNP = 34,     // Front Side Nail Protruding</t>
+  </si>
+  <si>
+    <t>B_SNP = 40,     // Back Side Nail Protruding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_RN = 2,       // Top Raised Nail              </t>
+  </si>
+  <si>
+    <t>B_RN = 11,      // Bottom Raised Nail</t>
+  </si>
+  <si>
+    <t>T_RNFC = 10,    // Top Raised Nail Fastener Cut off</t>
+  </si>
+  <si>
+    <t>B_RNFC = 19,    // Bottom Raised Nail Fastener Cut off</t>
+  </si>
+  <si>
+    <t>T_SH = 7,       // Top Board too Short</t>
+  </si>
+  <si>
+    <t>B_SH = 16,      // Bottom Board too Short</t>
+  </si>
+  <si>
+    <t>Board too Narrow</t>
+  </si>
+  <si>
+    <t>Broken Across Width</t>
+  </si>
+  <si>
+    <t>Segmentation Error</t>
+  </si>
+  <si>
+    <t>Missing Board</t>
+  </si>
+  <si>
+    <t>Missing Wood</t>
+  </si>
+  <si>
+    <t>Missing Wood Across Lenght</t>
+  </si>
+  <si>
+    <t>Possible Debris</t>
+  </si>
+  <si>
+    <t>Raised Nail</t>
+  </si>
+  <si>
+    <t>Board too Short</t>
+  </si>
+  <si>
+    <t>Block Protruding from Pallet</t>
+  </si>
+  <si>
+    <t>Excessive Angle</t>
+  </si>
+  <si>
+    <t>Missing Block</t>
+  </si>
+  <si>
+    <t>Missing Chunk</t>
+  </si>
+  <si>
+    <t>MBMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNP </t>
+  </si>
+  <si>
+    <t>Side Nail Protruding</t>
   </si>
 </sst>
 </file>
@@ -363,12 +547,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -383,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,7 +587,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C5A30A-B25A-4A24-A650-5341B92F473D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +1181,7 @@
       <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>86</v>
       </c>
       <c r="E19" t="s">
@@ -1041,12 +1238,12 @@
       <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1110,4 +1307,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB68E29-6DEB-4B67-9F55-E71FD883D563}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>